--- a/Trailblazers.xlsx
+++ b/Trailblazers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Profile link</t>
   </si>
@@ -23,30 +23,6 @@
   </si>
   <si>
     <t>Nextview</t>
-  </si>
-  <si>
-    <t>https://www.salesforce.com/trailblazer/lukaszbujlo</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>https://www.salesforce.com/trailblazer/dcwynar</t>
-  </si>
-  <si>
-    <t>https://www.salesforce.com/trailblazer/mkuca</t>
-  </si>
-  <si>
-    <t>https://www.salesforce.com/trailblazer/pzalesny</t>
-  </si>
-  <si>
-    <t>Pwc</t>
-  </si>
-  <si>
-    <t>https://www.salesforce.com/trailblazer/bmaciejewska1</t>
-  </si>
-  <si>
-    <t>https://www.salesforce.com/trailblazer/kpytowski</t>
   </si>
 </sst>
 </file>
@@ -340,64 +316,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>